--- a/InputData/fuels/BS/BAU Subsidies.xlsx
+++ b/InputData/fuels/BS/BAU Subsidies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\South Korea\eps-southkorea\InputData\fuels\BS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-southkorea\InputData\fuels\BS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03D82BBF-DE56-48EA-96DA-DC2A69F63F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A4FC2A-EFF9-4233-BB03-FB1B11C38742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -21,15 +21,17 @@
     <sheet name="Cal-CAPEX" sheetId="26" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="18" state="hidden" r:id="rId7"/>
     <sheet name="BS-BSfTFpEUP" sheetId="10" r:id="rId8"/>
-    <sheet name="BS-BSpUEO" sheetId="11" r:id="rId9"/>
-    <sheet name="BS-BSpUECB" sheetId="16" r:id="rId10"/>
-    <sheet name="BSpUECB" sheetId="32" r:id="rId11"/>
+    <sheet name="BS-BSpUEO-PreRet" sheetId="11" r:id="rId9"/>
+    <sheet name="BS-BSpUEO-PreNonRet" sheetId="34" r:id="rId10"/>
+    <sheet name="BS-BSpUEO-NewBlt" sheetId="33" r:id="rId11"/>
+    <sheet name="BS-BSpUECB" sheetId="16" r:id="rId12"/>
+    <sheet name="BSpUECB" sheetId="32" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="dollars_2020_2012" localSheetId="10">About!#REF!</definedName>
+    <definedName name="dollars_2020_2012" localSheetId="12">About!#REF!</definedName>
     <definedName name="dollars_2020_2012">About!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="274">
   <si>
     <t>Source:</t>
   </si>
@@ -2159,9 +2161,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="104" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9" style="21"/>
   </cols>
@@ -2716,17 +2718,3683 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9FF59BE-89B8-4B85-A37D-D6FD2097D282}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AH17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34">
+      <c r="A1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="24">
+        <v>2020</v>
+      </c>
+      <c r="C1" s="24">
+        <v>2021</v>
+      </c>
+      <c r="D1" s="24">
+        <v>2022</v>
+      </c>
+      <c r="E1" s="24">
+        <v>2023</v>
+      </c>
+      <c r="F1" s="24">
+        <v>2024</v>
+      </c>
+      <c r="G1" s="24">
+        <v>2025</v>
+      </c>
+      <c r="H1" s="24">
+        <v>2026</v>
+      </c>
+      <c r="I1" s="24">
+        <v>2027</v>
+      </c>
+      <c r="J1" s="24">
+        <v>2028</v>
+      </c>
+      <c r="K1" s="24">
+        <v>2029</v>
+      </c>
+      <c r="L1" s="24">
+        <v>2030</v>
+      </c>
+      <c r="M1" s="24">
+        <v>2031</v>
+      </c>
+      <c r="N1" s="24">
+        <v>2032</v>
+      </c>
+      <c r="O1" s="24">
+        <v>2033</v>
+      </c>
+      <c r="P1" s="24">
+        <v>2034</v>
+      </c>
+      <c r="Q1" s="24">
+        <v>2035</v>
+      </c>
+      <c r="R1" s="24">
+        <v>2036</v>
+      </c>
+      <c r="S1" s="24">
+        <v>2037</v>
+      </c>
+      <c r="T1" s="24">
+        <v>2038</v>
+      </c>
+      <c r="U1" s="24">
+        <v>2039</v>
+      </c>
+      <c r="V1" s="24">
+        <v>2040</v>
+      </c>
+      <c r="W1" s="24">
+        <v>2041</v>
+      </c>
+      <c r="X1" s="24">
+        <v>2042</v>
+      </c>
+      <c r="Y1" s="24">
+        <v>2043</v>
+      </c>
+      <c r="Z1" s="24">
+        <v>2044</v>
+      </c>
+      <c r="AA1" s="24">
+        <v>2045</v>
+      </c>
+      <c r="AB1" s="24">
+        <v>2046</v>
+      </c>
+      <c r="AC1" s="24">
+        <v>2047</v>
+      </c>
+      <c r="AD1" s="24">
+        <v>2048</v>
+      </c>
+      <c r="AE1" s="24">
+        <v>2049</v>
+      </c>
+      <c r="AF1" s="24">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="8">
+        <f>'Subsidies Paid'!G3/'Subsidies Paid'!N17</f>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="C2" s="8">
+        <f>B2</f>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="D2" s="8">
+        <f t="shared" ref="D2:AF2" si="0">C2</f>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="E2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="F2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="G2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="H2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="I2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="J2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="K2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="L2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="M2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="N2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="O2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="P2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="Q2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="R2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="S2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="T2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="U2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="V2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="W2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="X2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="Y2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="Z2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="AA2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="AB2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="AC2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="AD2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="AE2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="AF2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="24">
+        <v>0</v>
+      </c>
+      <c r="C3" s="24">
+        <v>0</v>
+      </c>
+      <c r="D3" s="24">
+        <v>0</v>
+      </c>
+      <c r="E3" s="24">
+        <v>0</v>
+      </c>
+      <c r="F3" s="24">
+        <v>0</v>
+      </c>
+      <c r="G3" s="24">
+        <v>0</v>
+      </c>
+      <c r="H3" s="24">
+        <v>0</v>
+      </c>
+      <c r="I3" s="24">
+        <v>0</v>
+      </c>
+      <c r="J3" s="24">
+        <v>0</v>
+      </c>
+      <c r="K3" s="24">
+        <v>0</v>
+      </c>
+      <c r="L3" s="24">
+        <v>0</v>
+      </c>
+      <c r="M3" s="24">
+        <v>0</v>
+      </c>
+      <c r="N3" s="24">
+        <v>0</v>
+      </c>
+      <c r="O3" s="24">
+        <v>0</v>
+      </c>
+      <c r="P3" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="24">
+        <v>0</v>
+      </c>
+      <c r="R3" s="24">
+        <v>0</v>
+      </c>
+      <c r="S3" s="24">
+        <v>0</v>
+      </c>
+      <c r="T3" s="24">
+        <v>0</v>
+      </c>
+      <c r="U3" s="24">
+        <v>0</v>
+      </c>
+      <c r="V3" s="24">
+        <v>0</v>
+      </c>
+      <c r="W3" s="24">
+        <v>0</v>
+      </c>
+      <c r="X3" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="24">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
+        <v>0</v>
+      </c>
+      <c r="N4" s="11">
+        <v>0</v>
+      </c>
+      <c r="O4" s="11">
+        <v>0</v>
+      </c>
+      <c r="P4" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>0</v>
+      </c>
+      <c r="R4" s="11">
+        <v>0</v>
+      </c>
+      <c r="S4" s="11">
+        <v>0</v>
+      </c>
+      <c r="T4" s="11">
+        <v>0</v>
+      </c>
+      <c r="U4" s="11">
+        <v>0</v>
+      </c>
+      <c r="V4" s="11">
+        <v>0</v>
+      </c>
+      <c r="W4" s="11">
+        <v>0</v>
+      </c>
+      <c r="X4" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="11">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
+        <v>0</v>
+      </c>
+      <c r="N5" s="11">
+        <v>0</v>
+      </c>
+      <c r="O5" s="11">
+        <v>0</v>
+      </c>
+      <c r="P5" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>0</v>
+      </c>
+      <c r="R5" s="11">
+        <v>0</v>
+      </c>
+      <c r="S5" s="11">
+        <v>0</v>
+      </c>
+      <c r="T5" s="11">
+        <v>0</v>
+      </c>
+      <c r="U5" s="11">
+        <v>0</v>
+      </c>
+      <c r="V5" s="11">
+        <v>0</v>
+      </c>
+      <c r="W5" s="11">
+        <v>0</v>
+      </c>
+      <c r="X5" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="11">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0</v>
+      </c>
+      <c r="M6" s="11">
+        <v>0</v>
+      </c>
+      <c r="N6" s="11">
+        <v>0</v>
+      </c>
+      <c r="O6" s="11">
+        <v>0</v>
+      </c>
+      <c r="P6" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>0</v>
+      </c>
+      <c r="R6" s="11">
+        <v>0</v>
+      </c>
+      <c r="S6" s="11">
+        <v>0</v>
+      </c>
+      <c r="T6" s="11">
+        <v>0</v>
+      </c>
+      <c r="U6" s="11">
+        <v>0</v>
+      </c>
+      <c r="V6" s="11">
+        <v>0</v>
+      </c>
+      <c r="W6" s="11">
+        <v>0</v>
+      </c>
+      <c r="X6" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
+        <v>0</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0</v>
+      </c>
+      <c r="O7" s="11">
+        <v>0</v>
+      </c>
+      <c r="P7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>0</v>
+      </c>
+      <c r="R7" s="11">
+        <v>0</v>
+      </c>
+      <c r="S7" s="11">
+        <v>0</v>
+      </c>
+      <c r="T7" s="11">
+        <v>0</v>
+      </c>
+      <c r="U7" s="11">
+        <v>0</v>
+      </c>
+      <c r="V7" s="11">
+        <v>0</v>
+      </c>
+      <c r="W7" s="11">
+        <v>0</v>
+      </c>
+      <c r="X7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
+        <v>0</v>
+      </c>
+      <c r="N8" s="11">
+        <v>0</v>
+      </c>
+      <c r="O8" s="11">
+        <v>0</v>
+      </c>
+      <c r="P8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>0</v>
+      </c>
+      <c r="R8" s="11">
+        <v>0</v>
+      </c>
+      <c r="S8" s="11">
+        <v>0</v>
+      </c>
+      <c r="T8" s="11">
+        <v>0</v>
+      </c>
+      <c r="U8" s="11">
+        <v>0</v>
+      </c>
+      <c r="V8" s="11">
+        <v>0</v>
+      </c>
+      <c r="W8" s="11">
+        <v>0</v>
+      </c>
+      <c r="X8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="A9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="11">
+        <v>0</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0</v>
+      </c>
+      <c r="L9" s="11">
+        <v>0</v>
+      </c>
+      <c r="M9" s="11">
+        <v>0</v>
+      </c>
+      <c r="N9" s="11">
+        <v>0</v>
+      </c>
+      <c r="O9" s="11">
+        <v>0</v>
+      </c>
+      <c r="P9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>0</v>
+      </c>
+      <c r="R9" s="11">
+        <v>0</v>
+      </c>
+      <c r="S9" s="11">
+        <v>0</v>
+      </c>
+      <c r="T9" s="11">
+        <v>0</v>
+      </c>
+      <c r="U9" s="11">
+        <v>0</v>
+      </c>
+      <c r="V9" s="11">
+        <v>0</v>
+      </c>
+      <c r="W9" s="11">
+        <v>0</v>
+      </c>
+      <c r="X9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="24">
+        <v>0</v>
+      </c>
+      <c r="C10" s="24">
+        <v>0</v>
+      </c>
+      <c r="D10" s="24">
+        <v>0</v>
+      </c>
+      <c r="E10" s="24">
+        <v>0</v>
+      </c>
+      <c r="F10" s="24">
+        <v>0</v>
+      </c>
+      <c r="G10" s="24">
+        <v>0</v>
+      </c>
+      <c r="H10" s="24">
+        <v>0</v>
+      </c>
+      <c r="I10" s="24">
+        <v>0</v>
+      </c>
+      <c r="J10" s="24">
+        <v>0</v>
+      </c>
+      <c r="K10" s="24">
+        <v>0</v>
+      </c>
+      <c r="L10" s="24">
+        <v>0</v>
+      </c>
+      <c r="M10" s="24">
+        <v>0</v>
+      </c>
+      <c r="N10" s="24">
+        <v>0</v>
+      </c>
+      <c r="O10" s="24">
+        <v>0</v>
+      </c>
+      <c r="P10" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="24">
+        <v>0</v>
+      </c>
+      <c r="R10" s="24">
+        <v>0</v>
+      </c>
+      <c r="S10" s="24">
+        <v>0</v>
+      </c>
+      <c r="T10" s="24">
+        <v>0</v>
+      </c>
+      <c r="U10" s="24">
+        <v>0</v>
+      </c>
+      <c r="V10" s="24">
+        <v>0</v>
+      </c>
+      <c r="W10" s="24">
+        <v>0</v>
+      </c>
+      <c r="X10" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="24">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="24">
+        <v>0</v>
+      </c>
+      <c r="C11" s="24">
+        <v>0</v>
+      </c>
+      <c r="D11" s="24">
+        <v>0</v>
+      </c>
+      <c r="E11" s="24">
+        <v>0</v>
+      </c>
+      <c r="F11" s="24">
+        <v>0</v>
+      </c>
+      <c r="G11" s="24">
+        <v>0</v>
+      </c>
+      <c r="H11" s="24">
+        <v>0</v>
+      </c>
+      <c r="I11" s="24">
+        <v>0</v>
+      </c>
+      <c r="J11" s="24">
+        <v>0</v>
+      </c>
+      <c r="K11" s="24">
+        <v>0</v>
+      </c>
+      <c r="L11" s="24">
+        <v>0</v>
+      </c>
+      <c r="M11" s="24">
+        <v>0</v>
+      </c>
+      <c r="N11" s="24">
+        <v>0</v>
+      </c>
+      <c r="O11" s="24">
+        <v>0</v>
+      </c>
+      <c r="P11" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="24">
+        <v>0</v>
+      </c>
+      <c r="R11" s="24">
+        <v>0</v>
+      </c>
+      <c r="S11" s="24">
+        <v>0</v>
+      </c>
+      <c r="T11" s="24">
+        <v>0</v>
+      </c>
+      <c r="U11" s="24">
+        <v>0</v>
+      </c>
+      <c r="V11" s="24">
+        <v>0</v>
+      </c>
+      <c r="W11" s="24">
+        <v>0</v>
+      </c>
+      <c r="X11" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="24">
+        <v>0</v>
+      </c>
+      <c r="C12" s="24">
+        <v>0</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0</v>
+      </c>
+      <c r="E12" s="24">
+        <v>0</v>
+      </c>
+      <c r="F12" s="24">
+        <v>0</v>
+      </c>
+      <c r="G12" s="24">
+        <v>0</v>
+      </c>
+      <c r="H12" s="24">
+        <v>0</v>
+      </c>
+      <c r="I12" s="24">
+        <v>0</v>
+      </c>
+      <c r="J12" s="24">
+        <v>0</v>
+      </c>
+      <c r="K12" s="24">
+        <v>0</v>
+      </c>
+      <c r="L12" s="24">
+        <v>0</v>
+      </c>
+      <c r="M12" s="24">
+        <v>0</v>
+      </c>
+      <c r="N12" s="24">
+        <v>0</v>
+      </c>
+      <c r="O12" s="24">
+        <v>0</v>
+      </c>
+      <c r="P12" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="24">
+        <v>0</v>
+      </c>
+      <c r="R12" s="24">
+        <v>0</v>
+      </c>
+      <c r="S12" s="24">
+        <v>0</v>
+      </c>
+      <c r="T12" s="24">
+        <v>0</v>
+      </c>
+      <c r="U12" s="24">
+        <v>0</v>
+      </c>
+      <c r="V12" s="24">
+        <v>0</v>
+      </c>
+      <c r="W12" s="24">
+        <v>0</v>
+      </c>
+      <c r="X12" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="8">
+        <f>B2*'Subsidies Paid'!$G$13</f>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="C13" s="8">
+        <f>B13</f>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="D13" s="8">
+        <f>C13</f>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="E13" s="8">
+        <f>D13</f>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" ref="F13:AF13" si="1">E13</f>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="H13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="I13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="J13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="K13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="M13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="N13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="O13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="P13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="Q13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="R13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="S13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="T13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="U13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="V13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="W13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="X13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="Y13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="Z13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="AA13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="AB13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="AC13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="AD13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="AE13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="AF13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="11">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
+        <v>0</v>
+      </c>
+      <c r="N14" s="11">
+        <v>0</v>
+      </c>
+      <c r="O14" s="11">
+        <v>0</v>
+      </c>
+      <c r="P14" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>0</v>
+      </c>
+      <c r="R14" s="11">
+        <v>0</v>
+      </c>
+      <c r="S14" s="11">
+        <v>0</v>
+      </c>
+      <c r="T14" s="11">
+        <v>0</v>
+      </c>
+      <c r="U14" s="11">
+        <v>0</v>
+      </c>
+      <c r="V14" s="11">
+        <v>0</v>
+      </c>
+      <c r="W14" s="11">
+        <v>0</v>
+      </c>
+      <c r="X14" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+    </row>
+    <row r="15" spans="1:34">
+      <c r="A15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="24">
+        <f>B11</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="24">
+        <f t="shared" ref="C15:AF15" si="2">C11</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34">
+      <c r="A16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="24">
+        <f>B11</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="24">
+        <f t="shared" ref="C16:AF16" si="3">C11</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32">
+      <c r="A17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="24">
+        <v>0</v>
+      </c>
+      <c r="C17" s="24">
+        <v>0</v>
+      </c>
+      <c r="D17" s="24">
+        <v>0</v>
+      </c>
+      <c r="E17" s="24">
+        <v>0</v>
+      </c>
+      <c r="F17" s="24">
+        <v>0</v>
+      </c>
+      <c r="G17" s="24">
+        <v>0</v>
+      </c>
+      <c r="H17" s="24">
+        <v>0</v>
+      </c>
+      <c r="I17" s="24">
+        <v>0</v>
+      </c>
+      <c r="J17" s="24">
+        <v>0</v>
+      </c>
+      <c r="K17" s="24">
+        <v>0</v>
+      </c>
+      <c r="L17" s="24">
+        <v>0</v>
+      </c>
+      <c r="M17" s="24">
+        <v>0</v>
+      </c>
+      <c r="N17" s="24">
+        <v>0</v>
+      </c>
+      <c r="O17" s="24">
+        <v>0</v>
+      </c>
+      <c r="P17" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="24">
+        <v>0</v>
+      </c>
+      <c r="R17" s="24">
+        <v>0</v>
+      </c>
+      <c r="S17" s="24">
+        <v>0</v>
+      </c>
+      <c r="T17" s="24">
+        <v>0</v>
+      </c>
+      <c r="U17" s="24">
+        <v>0</v>
+      </c>
+      <c r="V17" s="24">
+        <v>0</v>
+      </c>
+      <c r="W17" s="24">
+        <v>0</v>
+      </c>
+      <c r="X17" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="24">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="24">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E91AA03-1902-4294-AFCE-BE650DEE5471}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AH17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34">
+      <c r="A1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="24">
+        <v>2020</v>
+      </c>
+      <c r="C1" s="24">
+        <v>2021</v>
+      </c>
+      <c r="D1" s="24">
+        <v>2022</v>
+      </c>
+      <c r="E1" s="24">
+        <v>2023</v>
+      </c>
+      <c r="F1" s="24">
+        <v>2024</v>
+      </c>
+      <c r="G1" s="24">
+        <v>2025</v>
+      </c>
+      <c r="H1" s="24">
+        <v>2026</v>
+      </c>
+      <c r="I1" s="24">
+        <v>2027</v>
+      </c>
+      <c r="J1" s="24">
+        <v>2028</v>
+      </c>
+      <c r="K1" s="24">
+        <v>2029</v>
+      </c>
+      <c r="L1" s="24">
+        <v>2030</v>
+      </c>
+      <c r="M1" s="24">
+        <v>2031</v>
+      </c>
+      <c r="N1" s="24">
+        <v>2032</v>
+      </c>
+      <c r="O1" s="24">
+        <v>2033</v>
+      </c>
+      <c r="P1" s="24">
+        <v>2034</v>
+      </c>
+      <c r="Q1" s="24">
+        <v>2035</v>
+      </c>
+      <c r="R1" s="24">
+        <v>2036</v>
+      </c>
+      <c r="S1" s="24">
+        <v>2037</v>
+      </c>
+      <c r="T1" s="24">
+        <v>2038</v>
+      </c>
+      <c r="U1" s="24">
+        <v>2039</v>
+      </c>
+      <c r="V1" s="24">
+        <v>2040</v>
+      </c>
+      <c r="W1" s="24">
+        <v>2041</v>
+      </c>
+      <c r="X1" s="24">
+        <v>2042</v>
+      </c>
+      <c r="Y1" s="24">
+        <v>2043</v>
+      </c>
+      <c r="Z1" s="24">
+        <v>2044</v>
+      </c>
+      <c r="AA1" s="24">
+        <v>2045</v>
+      </c>
+      <c r="AB1" s="24">
+        <v>2046</v>
+      </c>
+      <c r="AC1" s="24">
+        <v>2047</v>
+      </c>
+      <c r="AD1" s="24">
+        <v>2048</v>
+      </c>
+      <c r="AE1" s="24">
+        <v>2049</v>
+      </c>
+      <c r="AF1" s="24">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="8">
+        <f>'Subsidies Paid'!G3/'Subsidies Paid'!N17</f>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="C2" s="8">
+        <f>B2</f>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="D2" s="8">
+        <f t="shared" ref="D2:AF2" si="0">C2</f>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="E2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="F2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="G2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="H2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="I2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="J2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="K2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="L2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="M2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="N2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="O2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="P2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="Q2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="R2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="S2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="T2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="U2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="V2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="W2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="X2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="Y2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="Z2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="AA2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="AB2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="AC2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="AD2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="AE2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="AF2" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5263156814663673E-3</v>
+      </c>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="24">
+        <v>0</v>
+      </c>
+      <c r="C3" s="24">
+        <v>0</v>
+      </c>
+      <c r="D3" s="24">
+        <v>0</v>
+      </c>
+      <c r="E3" s="24">
+        <v>0</v>
+      </c>
+      <c r="F3" s="24">
+        <v>0</v>
+      </c>
+      <c r="G3" s="24">
+        <v>0</v>
+      </c>
+      <c r="H3" s="24">
+        <v>0</v>
+      </c>
+      <c r="I3" s="24">
+        <v>0</v>
+      </c>
+      <c r="J3" s="24">
+        <v>0</v>
+      </c>
+      <c r="K3" s="24">
+        <v>0</v>
+      </c>
+      <c r="L3" s="24">
+        <v>0</v>
+      </c>
+      <c r="M3" s="24">
+        <v>0</v>
+      </c>
+      <c r="N3" s="24">
+        <v>0</v>
+      </c>
+      <c r="O3" s="24">
+        <v>0</v>
+      </c>
+      <c r="P3" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="24">
+        <v>0</v>
+      </c>
+      <c r="R3" s="24">
+        <v>0</v>
+      </c>
+      <c r="S3" s="24">
+        <v>0</v>
+      </c>
+      <c r="T3" s="24">
+        <v>0</v>
+      </c>
+      <c r="U3" s="24">
+        <v>0</v>
+      </c>
+      <c r="V3" s="24">
+        <v>0</v>
+      </c>
+      <c r="W3" s="24">
+        <v>0</v>
+      </c>
+      <c r="X3" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="24">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
+        <v>0</v>
+      </c>
+      <c r="N4" s="11">
+        <v>0</v>
+      </c>
+      <c r="O4" s="11">
+        <v>0</v>
+      </c>
+      <c r="P4" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>0</v>
+      </c>
+      <c r="R4" s="11">
+        <v>0</v>
+      </c>
+      <c r="S4" s="11">
+        <v>0</v>
+      </c>
+      <c r="T4" s="11">
+        <v>0</v>
+      </c>
+      <c r="U4" s="11">
+        <v>0</v>
+      </c>
+      <c r="V4" s="11">
+        <v>0</v>
+      </c>
+      <c r="W4" s="11">
+        <v>0</v>
+      </c>
+      <c r="X4" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="11">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
+        <v>0</v>
+      </c>
+      <c r="N5" s="11">
+        <v>0</v>
+      </c>
+      <c r="O5" s="11">
+        <v>0</v>
+      </c>
+      <c r="P5" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>0</v>
+      </c>
+      <c r="R5" s="11">
+        <v>0</v>
+      </c>
+      <c r="S5" s="11">
+        <v>0</v>
+      </c>
+      <c r="T5" s="11">
+        <v>0</v>
+      </c>
+      <c r="U5" s="11">
+        <v>0</v>
+      </c>
+      <c r="V5" s="11">
+        <v>0</v>
+      </c>
+      <c r="W5" s="11">
+        <v>0</v>
+      </c>
+      <c r="X5" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="11">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0</v>
+      </c>
+      <c r="M6" s="11">
+        <v>0</v>
+      </c>
+      <c r="N6" s="11">
+        <v>0</v>
+      </c>
+      <c r="O6" s="11">
+        <v>0</v>
+      </c>
+      <c r="P6" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>0</v>
+      </c>
+      <c r="R6" s="11">
+        <v>0</v>
+      </c>
+      <c r="S6" s="11">
+        <v>0</v>
+      </c>
+      <c r="T6" s="11">
+        <v>0</v>
+      </c>
+      <c r="U6" s="11">
+        <v>0</v>
+      </c>
+      <c r="V6" s="11">
+        <v>0</v>
+      </c>
+      <c r="W6" s="11">
+        <v>0</v>
+      </c>
+      <c r="X6" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
+        <v>0</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0</v>
+      </c>
+      <c r="O7" s="11">
+        <v>0</v>
+      </c>
+      <c r="P7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>0</v>
+      </c>
+      <c r="R7" s="11">
+        <v>0</v>
+      </c>
+      <c r="S7" s="11">
+        <v>0</v>
+      </c>
+      <c r="T7" s="11">
+        <v>0</v>
+      </c>
+      <c r="U7" s="11">
+        <v>0</v>
+      </c>
+      <c r="V7" s="11">
+        <v>0</v>
+      </c>
+      <c r="W7" s="11">
+        <v>0</v>
+      </c>
+      <c r="X7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
+        <v>0</v>
+      </c>
+      <c r="N8" s="11">
+        <v>0</v>
+      </c>
+      <c r="O8" s="11">
+        <v>0</v>
+      </c>
+      <c r="P8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>0</v>
+      </c>
+      <c r="R8" s="11">
+        <v>0</v>
+      </c>
+      <c r="S8" s="11">
+        <v>0</v>
+      </c>
+      <c r="T8" s="11">
+        <v>0</v>
+      </c>
+      <c r="U8" s="11">
+        <v>0</v>
+      </c>
+      <c r="V8" s="11">
+        <v>0</v>
+      </c>
+      <c r="W8" s="11">
+        <v>0</v>
+      </c>
+      <c r="X8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="A9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="11">
+        <v>0</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0</v>
+      </c>
+      <c r="L9" s="11">
+        <v>0</v>
+      </c>
+      <c r="M9" s="11">
+        <v>0</v>
+      </c>
+      <c r="N9" s="11">
+        <v>0</v>
+      </c>
+      <c r="O9" s="11">
+        <v>0</v>
+      </c>
+      <c r="P9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>0</v>
+      </c>
+      <c r="R9" s="11">
+        <v>0</v>
+      </c>
+      <c r="S9" s="11">
+        <v>0</v>
+      </c>
+      <c r="T9" s="11">
+        <v>0</v>
+      </c>
+      <c r="U9" s="11">
+        <v>0</v>
+      </c>
+      <c r="V9" s="11">
+        <v>0</v>
+      </c>
+      <c r="W9" s="11">
+        <v>0</v>
+      </c>
+      <c r="X9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="24">
+        <v>0</v>
+      </c>
+      <c r="C10" s="24">
+        <v>0</v>
+      </c>
+      <c r="D10" s="24">
+        <v>0</v>
+      </c>
+      <c r="E10" s="24">
+        <v>0</v>
+      </c>
+      <c r="F10" s="24">
+        <v>0</v>
+      </c>
+      <c r="G10" s="24">
+        <v>0</v>
+      </c>
+      <c r="H10" s="24">
+        <v>0</v>
+      </c>
+      <c r="I10" s="24">
+        <v>0</v>
+      </c>
+      <c r="J10" s="24">
+        <v>0</v>
+      </c>
+      <c r="K10" s="24">
+        <v>0</v>
+      </c>
+      <c r="L10" s="24">
+        <v>0</v>
+      </c>
+      <c r="M10" s="24">
+        <v>0</v>
+      </c>
+      <c r="N10" s="24">
+        <v>0</v>
+      </c>
+      <c r="O10" s="24">
+        <v>0</v>
+      </c>
+      <c r="P10" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="24">
+        <v>0</v>
+      </c>
+      <c r="R10" s="24">
+        <v>0</v>
+      </c>
+      <c r="S10" s="24">
+        <v>0</v>
+      </c>
+      <c r="T10" s="24">
+        <v>0</v>
+      </c>
+      <c r="U10" s="24">
+        <v>0</v>
+      </c>
+      <c r="V10" s="24">
+        <v>0</v>
+      </c>
+      <c r="W10" s="24">
+        <v>0</v>
+      </c>
+      <c r="X10" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="24">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="24">
+        <v>0</v>
+      </c>
+      <c r="C11" s="24">
+        <v>0</v>
+      </c>
+      <c r="D11" s="24">
+        <v>0</v>
+      </c>
+      <c r="E11" s="24">
+        <v>0</v>
+      </c>
+      <c r="F11" s="24">
+        <v>0</v>
+      </c>
+      <c r="G11" s="24">
+        <v>0</v>
+      </c>
+      <c r="H11" s="24">
+        <v>0</v>
+      </c>
+      <c r="I11" s="24">
+        <v>0</v>
+      </c>
+      <c r="J11" s="24">
+        <v>0</v>
+      </c>
+      <c r="K11" s="24">
+        <v>0</v>
+      </c>
+      <c r="L11" s="24">
+        <v>0</v>
+      </c>
+      <c r="M11" s="24">
+        <v>0</v>
+      </c>
+      <c r="N11" s="24">
+        <v>0</v>
+      </c>
+      <c r="O11" s="24">
+        <v>0</v>
+      </c>
+      <c r="P11" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="24">
+        <v>0</v>
+      </c>
+      <c r="R11" s="24">
+        <v>0</v>
+      </c>
+      <c r="S11" s="24">
+        <v>0</v>
+      </c>
+      <c r="T11" s="24">
+        <v>0</v>
+      </c>
+      <c r="U11" s="24">
+        <v>0</v>
+      </c>
+      <c r="V11" s="24">
+        <v>0</v>
+      </c>
+      <c r="W11" s="24">
+        <v>0</v>
+      </c>
+      <c r="X11" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="24">
+        <v>0</v>
+      </c>
+      <c r="C12" s="24">
+        <v>0</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0</v>
+      </c>
+      <c r="E12" s="24">
+        <v>0</v>
+      </c>
+      <c r="F12" s="24">
+        <v>0</v>
+      </c>
+      <c r="G12" s="24">
+        <v>0</v>
+      </c>
+      <c r="H12" s="24">
+        <v>0</v>
+      </c>
+      <c r="I12" s="24">
+        <v>0</v>
+      </c>
+      <c r="J12" s="24">
+        <v>0</v>
+      </c>
+      <c r="K12" s="24">
+        <v>0</v>
+      </c>
+      <c r="L12" s="24">
+        <v>0</v>
+      </c>
+      <c r="M12" s="24">
+        <v>0</v>
+      </c>
+      <c r="N12" s="24">
+        <v>0</v>
+      </c>
+      <c r="O12" s="24">
+        <v>0</v>
+      </c>
+      <c r="P12" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="24">
+        <v>0</v>
+      </c>
+      <c r="R12" s="24">
+        <v>0</v>
+      </c>
+      <c r="S12" s="24">
+        <v>0</v>
+      </c>
+      <c r="T12" s="24">
+        <v>0</v>
+      </c>
+      <c r="U12" s="24">
+        <v>0</v>
+      </c>
+      <c r="V12" s="24">
+        <v>0</v>
+      </c>
+      <c r="W12" s="24">
+        <v>0</v>
+      </c>
+      <c r="X12" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="8">
+        <f>B2*'Subsidies Paid'!$G$13</f>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="C13" s="8">
+        <f>B13</f>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="D13" s="8">
+        <f>C13</f>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="E13" s="8">
+        <f>D13</f>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" ref="F13:AF13" si="1">E13</f>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="H13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="I13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="J13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="K13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="M13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="N13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="O13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="P13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="Q13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="R13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="S13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="T13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="U13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="V13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="W13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="X13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="Y13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="Z13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="AA13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="AB13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="AC13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="AD13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="AE13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="AF13" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6477023782316778E-5</v>
+      </c>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="11">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
+        <v>0</v>
+      </c>
+      <c r="N14" s="11">
+        <v>0</v>
+      </c>
+      <c r="O14" s="11">
+        <v>0</v>
+      </c>
+      <c r="P14" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>0</v>
+      </c>
+      <c r="R14" s="11">
+        <v>0</v>
+      </c>
+      <c r="S14" s="11">
+        <v>0</v>
+      </c>
+      <c r="T14" s="11">
+        <v>0</v>
+      </c>
+      <c r="U14" s="11">
+        <v>0</v>
+      </c>
+      <c r="V14" s="11">
+        <v>0</v>
+      </c>
+      <c r="W14" s="11">
+        <v>0</v>
+      </c>
+      <c r="X14" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+    </row>
+    <row r="15" spans="1:34">
+      <c r="A15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="24">
+        <f>B11</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="24">
+        <f t="shared" ref="C15:AF15" si="2">C11</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34">
+      <c r="A16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="24">
+        <f>B11</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="24">
+        <f t="shared" ref="C16:AF16" si="3">C11</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32">
+      <c r="A17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="24">
+        <v>0</v>
+      </c>
+      <c r="C17" s="24">
+        <v>0</v>
+      </c>
+      <c r="D17" s="24">
+        <v>0</v>
+      </c>
+      <c r="E17" s="24">
+        <v>0</v>
+      </c>
+      <c r="F17" s="24">
+        <v>0</v>
+      </c>
+      <c r="G17" s="24">
+        <v>0</v>
+      </c>
+      <c r="H17" s="24">
+        <v>0</v>
+      </c>
+      <c r="I17" s="24">
+        <v>0</v>
+      </c>
+      <c r="J17" s="24">
+        <v>0</v>
+      </c>
+      <c r="K17" s="24">
+        <v>0</v>
+      </c>
+      <c r="L17" s="24">
+        <v>0</v>
+      </c>
+      <c r="M17" s="24">
+        <v>0</v>
+      </c>
+      <c r="N17" s="24">
+        <v>0</v>
+      </c>
+      <c r="O17" s="24">
+        <v>0</v>
+      </c>
+      <c r="P17" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="24">
+        <v>0</v>
+      </c>
+      <c r="R17" s="24">
+        <v>0</v>
+      </c>
+      <c r="S17" s="24">
+        <v>0</v>
+      </c>
+      <c r="T17" s="24">
+        <v>0</v>
+      </c>
+      <c r="U17" s="24">
+        <v>0</v>
+      </c>
+      <c r="V17" s="24">
+        <v>0</v>
+      </c>
+      <c r="W17" s="24">
+        <v>0</v>
+      </c>
+      <c r="X17" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="24">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="24">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AH17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.6328125" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
@@ -4684,15 +8352,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54472658-247F-4DFA-A0C3-62F62B3A0567}">
   <dimension ref="A1:AH20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.6328125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" style="24" customWidth="1"/>
     <col min="2" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
@@ -6667,395 +10337,395 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" style="24" customWidth="1"/>
-    <col min="2" max="2" width="12.36328125" style="24" customWidth="1"/>
-    <col min="3" max="6" width="13.6328125" style="24" customWidth="1"/>
-    <col min="7" max="8" width="12.6328125" style="24" customWidth="1"/>
-    <col min="9" max="10" width="11.90625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="24" customWidth="1"/>
+    <col min="3" max="6" width="13.5703125" style="24" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" style="24" customWidth="1"/>
+    <col min="9" max="10" width="11.85546875" style="24" customWidth="1"/>
     <col min="11" max="256" width="9" style="24"/>
     <col min="257" max="257" width="14" style="24" customWidth="1"/>
-    <col min="258" max="258" width="12.36328125" style="24" customWidth="1"/>
-    <col min="259" max="262" width="13.6328125" style="24" customWidth="1"/>
-    <col min="263" max="264" width="12.6328125" style="24" customWidth="1"/>
-    <col min="265" max="266" width="11.90625" style="24" customWidth="1"/>
+    <col min="258" max="258" width="12.42578125" style="24" customWidth="1"/>
+    <col min="259" max="262" width="13.5703125" style="24" customWidth="1"/>
+    <col min="263" max="264" width="12.5703125" style="24" customWidth="1"/>
+    <col min="265" max="266" width="11.85546875" style="24" customWidth="1"/>
     <col min="267" max="512" width="9" style="24"/>
     <col min="513" max="513" width="14" style="24" customWidth="1"/>
-    <col min="514" max="514" width="12.36328125" style="24" customWidth="1"/>
-    <col min="515" max="518" width="13.6328125" style="24" customWidth="1"/>
-    <col min="519" max="520" width="12.6328125" style="24" customWidth="1"/>
-    <col min="521" max="522" width="11.90625" style="24" customWidth="1"/>
+    <col min="514" max="514" width="12.42578125" style="24" customWidth="1"/>
+    <col min="515" max="518" width="13.5703125" style="24" customWidth="1"/>
+    <col min="519" max="520" width="12.5703125" style="24" customWidth="1"/>
+    <col min="521" max="522" width="11.85546875" style="24" customWidth="1"/>
     <col min="523" max="768" width="9" style="24"/>
     <col min="769" max="769" width="14" style="24" customWidth="1"/>
-    <col min="770" max="770" width="12.36328125" style="24" customWidth="1"/>
-    <col min="771" max="774" width="13.6328125" style="24" customWidth="1"/>
-    <col min="775" max="776" width="12.6328125" style="24" customWidth="1"/>
-    <col min="777" max="778" width="11.90625" style="24" customWidth="1"/>
+    <col min="770" max="770" width="12.42578125" style="24" customWidth="1"/>
+    <col min="771" max="774" width="13.5703125" style="24" customWidth="1"/>
+    <col min="775" max="776" width="12.5703125" style="24" customWidth="1"/>
+    <col min="777" max="778" width="11.85546875" style="24" customWidth="1"/>
     <col min="779" max="1024" width="9" style="24"/>
     <col min="1025" max="1025" width="14" style="24" customWidth="1"/>
-    <col min="1026" max="1026" width="12.36328125" style="24" customWidth="1"/>
-    <col min="1027" max="1030" width="13.6328125" style="24" customWidth="1"/>
-    <col min="1031" max="1032" width="12.6328125" style="24" customWidth="1"/>
-    <col min="1033" max="1034" width="11.90625" style="24" customWidth="1"/>
+    <col min="1026" max="1026" width="12.42578125" style="24" customWidth="1"/>
+    <col min="1027" max="1030" width="13.5703125" style="24" customWidth="1"/>
+    <col min="1031" max="1032" width="12.5703125" style="24" customWidth="1"/>
+    <col min="1033" max="1034" width="11.85546875" style="24" customWidth="1"/>
     <col min="1035" max="1280" width="9" style="24"/>
     <col min="1281" max="1281" width="14" style="24" customWidth="1"/>
-    <col min="1282" max="1282" width="12.36328125" style="24" customWidth="1"/>
-    <col min="1283" max="1286" width="13.6328125" style="24" customWidth="1"/>
-    <col min="1287" max="1288" width="12.6328125" style="24" customWidth="1"/>
-    <col min="1289" max="1290" width="11.90625" style="24" customWidth="1"/>
+    <col min="1282" max="1282" width="12.42578125" style="24" customWidth="1"/>
+    <col min="1283" max="1286" width="13.5703125" style="24" customWidth="1"/>
+    <col min="1287" max="1288" width="12.5703125" style="24" customWidth="1"/>
+    <col min="1289" max="1290" width="11.85546875" style="24" customWidth="1"/>
     <col min="1291" max="1536" width="9" style="24"/>
     <col min="1537" max="1537" width="14" style="24" customWidth="1"/>
-    <col min="1538" max="1538" width="12.36328125" style="24" customWidth="1"/>
-    <col min="1539" max="1542" width="13.6328125" style="24" customWidth="1"/>
-    <col min="1543" max="1544" width="12.6328125" style="24" customWidth="1"/>
-    <col min="1545" max="1546" width="11.90625" style="24" customWidth="1"/>
+    <col min="1538" max="1538" width="12.42578125" style="24" customWidth="1"/>
+    <col min="1539" max="1542" width="13.5703125" style="24" customWidth="1"/>
+    <col min="1543" max="1544" width="12.5703125" style="24" customWidth="1"/>
+    <col min="1545" max="1546" width="11.85546875" style="24" customWidth="1"/>
     <col min="1547" max="1792" width="9" style="24"/>
     <col min="1793" max="1793" width="14" style="24" customWidth="1"/>
-    <col min="1794" max="1794" width="12.36328125" style="24" customWidth="1"/>
-    <col min="1795" max="1798" width="13.6328125" style="24" customWidth="1"/>
-    <col min="1799" max="1800" width="12.6328125" style="24" customWidth="1"/>
-    <col min="1801" max="1802" width="11.90625" style="24" customWidth="1"/>
+    <col min="1794" max="1794" width="12.42578125" style="24" customWidth="1"/>
+    <col min="1795" max="1798" width="13.5703125" style="24" customWidth="1"/>
+    <col min="1799" max="1800" width="12.5703125" style="24" customWidth="1"/>
+    <col min="1801" max="1802" width="11.85546875" style="24" customWidth="1"/>
     <col min="1803" max="2048" width="9" style="24"/>
     <col min="2049" max="2049" width="14" style="24" customWidth="1"/>
-    <col min="2050" max="2050" width="12.36328125" style="24" customWidth="1"/>
-    <col min="2051" max="2054" width="13.6328125" style="24" customWidth="1"/>
-    <col min="2055" max="2056" width="12.6328125" style="24" customWidth="1"/>
-    <col min="2057" max="2058" width="11.90625" style="24" customWidth="1"/>
+    <col min="2050" max="2050" width="12.42578125" style="24" customWidth="1"/>
+    <col min="2051" max="2054" width="13.5703125" style="24" customWidth="1"/>
+    <col min="2055" max="2056" width="12.5703125" style="24" customWidth="1"/>
+    <col min="2057" max="2058" width="11.85546875" style="24" customWidth="1"/>
     <col min="2059" max="2304" width="9" style="24"/>
     <col min="2305" max="2305" width="14" style="24" customWidth="1"/>
-    <col min="2306" max="2306" width="12.36328125" style="24" customWidth="1"/>
-    <col min="2307" max="2310" width="13.6328125" style="24" customWidth="1"/>
-    <col min="2311" max="2312" width="12.6328125" style="24" customWidth="1"/>
-    <col min="2313" max="2314" width="11.90625" style="24" customWidth="1"/>
+    <col min="2306" max="2306" width="12.42578125" style="24" customWidth="1"/>
+    <col min="2307" max="2310" width="13.5703125" style="24" customWidth="1"/>
+    <col min="2311" max="2312" width="12.5703125" style="24" customWidth="1"/>
+    <col min="2313" max="2314" width="11.85546875" style="24" customWidth="1"/>
     <col min="2315" max="2560" width="9" style="24"/>
     <col min="2561" max="2561" width="14" style="24" customWidth="1"/>
-    <col min="2562" max="2562" width="12.36328125" style="24" customWidth="1"/>
-    <col min="2563" max="2566" width="13.6328125" style="24" customWidth="1"/>
-    <col min="2567" max="2568" width="12.6328125" style="24" customWidth="1"/>
-    <col min="2569" max="2570" width="11.90625" style="24" customWidth="1"/>
+    <col min="2562" max="2562" width="12.42578125" style="24" customWidth="1"/>
+    <col min="2563" max="2566" width="13.5703125" style="24" customWidth="1"/>
+    <col min="2567" max="2568" width="12.5703125" style="24" customWidth="1"/>
+    <col min="2569" max="2570" width="11.85546875" style="24" customWidth="1"/>
     <col min="2571" max="2816" width="9" style="24"/>
     <col min="2817" max="2817" width="14" style="24" customWidth="1"/>
-    <col min="2818" max="2818" width="12.36328125" style="24" customWidth="1"/>
-    <col min="2819" max="2822" width="13.6328125" style="24" customWidth="1"/>
-    <col min="2823" max="2824" width="12.6328125" style="24" customWidth="1"/>
-    <col min="2825" max="2826" width="11.90625" style="24" customWidth="1"/>
+    <col min="2818" max="2818" width="12.42578125" style="24" customWidth="1"/>
+    <col min="2819" max="2822" width="13.5703125" style="24" customWidth="1"/>
+    <col min="2823" max="2824" width="12.5703125" style="24" customWidth="1"/>
+    <col min="2825" max="2826" width="11.85546875" style="24" customWidth="1"/>
     <col min="2827" max="3072" width="9" style="24"/>
     <col min="3073" max="3073" width="14" style="24" customWidth="1"/>
-    <col min="3074" max="3074" width="12.36328125" style="24" customWidth="1"/>
-    <col min="3075" max="3078" width="13.6328125" style="24" customWidth="1"/>
-    <col min="3079" max="3080" width="12.6328125" style="24" customWidth="1"/>
-    <col min="3081" max="3082" width="11.90625" style="24" customWidth="1"/>
+    <col min="3074" max="3074" width="12.42578125" style="24" customWidth="1"/>
+    <col min="3075" max="3078" width="13.5703125" style="24" customWidth="1"/>
+    <col min="3079" max="3080" width="12.5703125" style="24" customWidth="1"/>
+    <col min="3081" max="3082" width="11.85546875" style="24" customWidth="1"/>
     <col min="3083" max="3328" width="9" style="24"/>
     <col min="3329" max="3329" width="14" style="24" customWidth="1"/>
-    <col min="3330" max="3330" width="12.36328125" style="24" customWidth="1"/>
-    <col min="3331" max="3334" width="13.6328125" style="24" customWidth="1"/>
-    <col min="3335" max="3336" width="12.6328125" style="24" customWidth="1"/>
-    <col min="3337" max="3338" width="11.90625" style="24" customWidth="1"/>
+    <col min="3330" max="3330" width="12.42578125" style="24" customWidth="1"/>
+    <col min="3331" max="3334" width="13.5703125" style="24" customWidth="1"/>
+    <col min="3335" max="3336" width="12.5703125" style="24" customWidth="1"/>
+    <col min="3337" max="3338" width="11.85546875" style="24" customWidth="1"/>
     <col min="3339" max="3584" width="9" style="24"/>
     <col min="3585" max="3585" width="14" style="24" customWidth="1"/>
-    <col min="3586" max="3586" width="12.36328125" style="24" customWidth="1"/>
-    <col min="3587" max="3590" width="13.6328125" style="24" customWidth="1"/>
-    <col min="3591" max="3592" width="12.6328125" style="24" customWidth="1"/>
-    <col min="3593" max="3594" width="11.90625" style="24" customWidth="1"/>
+    <col min="3586" max="3586" width="12.42578125" style="24" customWidth="1"/>
+    <col min="3587" max="3590" width="13.5703125" style="24" customWidth="1"/>
+    <col min="3591" max="3592" width="12.5703125" style="24" customWidth="1"/>
+    <col min="3593" max="3594" width="11.85546875" style="24" customWidth="1"/>
     <col min="3595" max="3840" width="9" style="24"/>
     <col min="3841" max="3841" width="14" style="24" customWidth="1"/>
-    <col min="3842" max="3842" width="12.36328125" style="24" customWidth="1"/>
-    <col min="3843" max="3846" width="13.6328125" style="24" customWidth="1"/>
-    <col min="3847" max="3848" width="12.6328125" style="24" customWidth="1"/>
-    <col min="3849" max="3850" width="11.90625" style="24" customWidth="1"/>
+    <col min="3842" max="3842" width="12.42578125" style="24" customWidth="1"/>
+    <col min="3843" max="3846" width="13.5703125" style="24" customWidth="1"/>
+    <col min="3847" max="3848" width="12.5703125" style="24" customWidth="1"/>
+    <col min="3849" max="3850" width="11.85546875" style="24" customWidth="1"/>
     <col min="3851" max="4096" width="9" style="24"/>
     <col min="4097" max="4097" width="14" style="24" customWidth="1"/>
-    <col min="4098" max="4098" width="12.36328125" style="24" customWidth="1"/>
-    <col min="4099" max="4102" width="13.6328125" style="24" customWidth="1"/>
-    <col min="4103" max="4104" width="12.6328125" style="24" customWidth="1"/>
-    <col min="4105" max="4106" width="11.90625" style="24" customWidth="1"/>
+    <col min="4098" max="4098" width="12.42578125" style="24" customWidth="1"/>
+    <col min="4099" max="4102" width="13.5703125" style="24" customWidth="1"/>
+    <col min="4103" max="4104" width="12.5703125" style="24" customWidth="1"/>
+    <col min="4105" max="4106" width="11.85546875" style="24" customWidth="1"/>
     <col min="4107" max="4352" width="9" style="24"/>
     <col min="4353" max="4353" width="14" style="24" customWidth="1"/>
-    <col min="4354" max="4354" width="12.36328125" style="24" customWidth="1"/>
-    <col min="4355" max="4358" width="13.6328125" style="24" customWidth="1"/>
-    <col min="4359" max="4360" width="12.6328125" style="24" customWidth="1"/>
-    <col min="4361" max="4362" width="11.90625" style="24" customWidth="1"/>
+    <col min="4354" max="4354" width="12.42578125" style="24" customWidth="1"/>
+    <col min="4355" max="4358" width="13.5703125" style="24" customWidth="1"/>
+    <col min="4359" max="4360" width="12.5703125" style="24" customWidth="1"/>
+    <col min="4361" max="4362" width="11.85546875" style="24" customWidth="1"/>
     <col min="4363" max="4608" width="9" style="24"/>
     <col min="4609" max="4609" width="14" style="24" customWidth="1"/>
-    <col min="4610" max="4610" width="12.36328125" style="24" customWidth="1"/>
-    <col min="4611" max="4614" width="13.6328125" style="24" customWidth="1"/>
-    <col min="4615" max="4616" width="12.6328125" style="24" customWidth="1"/>
-    <col min="4617" max="4618" width="11.90625" style="24" customWidth="1"/>
+    <col min="4610" max="4610" width="12.42578125" style="24" customWidth="1"/>
+    <col min="4611" max="4614" width="13.5703125" style="24" customWidth="1"/>
+    <col min="4615" max="4616" width="12.5703125" style="24" customWidth="1"/>
+    <col min="4617" max="4618" width="11.85546875" style="24" customWidth="1"/>
     <col min="4619" max="4864" width="9" style="24"/>
     <col min="4865" max="4865" width="14" style="24" customWidth="1"/>
-    <col min="4866" max="4866" width="12.36328125" style="24" customWidth="1"/>
-    <col min="4867" max="4870" width="13.6328125" style="24" customWidth="1"/>
-    <col min="4871" max="4872" width="12.6328125" style="24" customWidth="1"/>
-    <col min="4873" max="4874" width="11.90625" style="24" customWidth="1"/>
+    <col min="4866" max="4866" width="12.42578125" style="24" customWidth="1"/>
+    <col min="4867" max="4870" width="13.5703125" style="24" customWidth="1"/>
+    <col min="4871" max="4872" width="12.5703125" style="24" customWidth="1"/>
+    <col min="4873" max="4874" width="11.85546875" style="24" customWidth="1"/>
     <col min="4875" max="5120" width="9" style="24"/>
     <col min="5121" max="5121" width="14" style="24" customWidth="1"/>
-    <col min="5122" max="5122" width="12.36328125" style="24" customWidth="1"/>
-    <col min="5123" max="5126" width="13.6328125" style="24" customWidth="1"/>
-    <col min="5127" max="5128" width="12.6328125" style="24" customWidth="1"/>
-    <col min="5129" max="5130" width="11.90625" style="24" customWidth="1"/>
+    <col min="5122" max="5122" width="12.42578125" style="24" customWidth="1"/>
+    <col min="5123" max="5126" width="13.5703125" style="24" customWidth="1"/>
+    <col min="5127" max="5128" width="12.5703125" style="24" customWidth="1"/>
+    <col min="5129" max="5130" width="11.85546875" style="24" customWidth="1"/>
     <col min="5131" max="5376" width="9" style="24"/>
     <col min="5377" max="5377" width="14" style="24" customWidth="1"/>
-    <col min="5378" max="5378" width="12.36328125" style="24" customWidth="1"/>
-    <col min="5379" max="5382" width="13.6328125" style="24" customWidth="1"/>
-    <col min="5383" max="5384" width="12.6328125" style="24" customWidth="1"/>
-    <col min="5385" max="5386" width="11.90625" style="24" customWidth="1"/>
+    <col min="5378" max="5378" width="12.42578125" style="24" customWidth="1"/>
+    <col min="5379" max="5382" width="13.5703125" style="24" customWidth="1"/>
+    <col min="5383" max="5384" width="12.5703125" style="24" customWidth="1"/>
+    <col min="5385" max="5386" width="11.85546875" style="24" customWidth="1"/>
     <col min="5387" max="5632" width="9" style="24"/>
     <col min="5633" max="5633" width="14" style="24" customWidth="1"/>
-    <col min="5634" max="5634" width="12.36328125" style="24" customWidth="1"/>
-    <col min="5635" max="5638" width="13.6328125" style="24" customWidth="1"/>
-    <col min="5639" max="5640" width="12.6328125" style="24" customWidth="1"/>
-    <col min="5641" max="5642" width="11.90625" style="24" customWidth="1"/>
+    <col min="5634" max="5634" width="12.42578125" style="24" customWidth="1"/>
+    <col min="5635" max="5638" width="13.5703125" style="24" customWidth="1"/>
+    <col min="5639" max="5640" width="12.5703125" style="24" customWidth="1"/>
+    <col min="5641" max="5642" width="11.85546875" style="24" customWidth="1"/>
     <col min="5643" max="5888" width="9" style="24"/>
     <col min="5889" max="5889" width="14" style="24" customWidth="1"/>
-    <col min="5890" max="5890" width="12.36328125" style="24" customWidth="1"/>
-    <col min="5891" max="5894" width="13.6328125" style="24" customWidth="1"/>
-    <col min="5895" max="5896" width="12.6328125" style="24" customWidth="1"/>
-    <col min="5897" max="5898" width="11.90625" style="24" customWidth="1"/>
+    <col min="5890" max="5890" width="12.42578125" style="24" customWidth="1"/>
+    <col min="5891" max="5894" width="13.5703125" style="24" customWidth="1"/>
+    <col min="5895" max="5896" width="12.5703125" style="24" customWidth="1"/>
+    <col min="5897" max="5898" width="11.85546875" style="24" customWidth="1"/>
     <col min="5899" max="6144" width="9" style="24"/>
     <col min="6145" max="6145" width="14" style="24" customWidth="1"/>
-    <col min="6146" max="6146" width="12.36328125" style="24" customWidth="1"/>
-    <col min="6147" max="6150" width="13.6328125" style="24" customWidth="1"/>
-    <col min="6151" max="6152" width="12.6328125" style="24" customWidth="1"/>
-    <col min="6153" max="6154" width="11.90625" style="24" customWidth="1"/>
+    <col min="6146" max="6146" width="12.42578125" style="24" customWidth="1"/>
+    <col min="6147" max="6150" width="13.5703125" style="24" customWidth="1"/>
+    <col min="6151" max="6152" width="12.5703125" style="24" customWidth="1"/>
+    <col min="6153" max="6154" width="11.85546875" style="24" customWidth="1"/>
     <col min="6155" max="6400" width="9" style="24"/>
     <col min="6401" max="6401" width="14" style="24" customWidth="1"/>
-    <col min="6402" max="6402" width="12.36328125" style="24" customWidth="1"/>
-    <col min="6403" max="6406" width="13.6328125" style="24" customWidth="1"/>
-    <col min="6407" max="6408" width="12.6328125" style="24" customWidth="1"/>
-    <col min="6409" max="6410" width="11.90625" style="24" customWidth="1"/>
+    <col min="6402" max="6402" width="12.42578125" style="24" customWidth="1"/>
+    <col min="6403" max="6406" width="13.5703125" style="24" customWidth="1"/>
+    <col min="6407" max="6408" width="12.5703125" style="24" customWidth="1"/>
+    <col min="6409" max="6410" width="11.85546875" style="24" customWidth="1"/>
     <col min="6411" max="6656" width="9" style="24"/>
     <col min="6657" max="6657" width="14" style="24" customWidth="1"/>
-    <col min="6658" max="6658" width="12.36328125" style="24" customWidth="1"/>
-    <col min="6659" max="6662" width="13.6328125" style="24" customWidth="1"/>
-    <col min="6663" max="6664" width="12.6328125" style="24" customWidth="1"/>
-    <col min="6665" max="6666" width="11.90625" style="24" customWidth="1"/>
+    <col min="6658" max="6658" width="12.42578125" style="24" customWidth="1"/>
+    <col min="6659" max="6662" width="13.5703125" style="24" customWidth="1"/>
+    <col min="6663" max="6664" width="12.5703125" style="24" customWidth="1"/>
+    <col min="6665" max="6666" width="11.85546875" style="24" customWidth="1"/>
     <col min="6667" max="6912" width="9" style="24"/>
     <col min="6913" max="6913" width="14" style="24" customWidth="1"/>
-    <col min="6914" max="6914" width="12.36328125" style="24" customWidth="1"/>
-    <col min="6915" max="6918" width="13.6328125" style="24" customWidth="1"/>
-    <col min="6919" max="6920" width="12.6328125" style="24" customWidth="1"/>
-    <col min="6921" max="6922" width="11.90625" style="24" customWidth="1"/>
+    <col min="6914" max="6914" width="12.42578125" style="24" customWidth="1"/>
+    <col min="6915" max="6918" width="13.5703125" style="24" customWidth="1"/>
+    <col min="6919" max="6920" width="12.5703125" style="24" customWidth="1"/>
+    <col min="6921" max="6922" width="11.85546875" style="24" customWidth="1"/>
     <col min="6923" max="7168" width="9" style="24"/>
     <col min="7169" max="7169" width="14" style="24" customWidth="1"/>
-    <col min="7170" max="7170" width="12.36328125" style="24" customWidth="1"/>
-    <col min="7171" max="7174" width="13.6328125" style="24" customWidth="1"/>
-    <col min="7175" max="7176" width="12.6328125" style="24" customWidth="1"/>
-    <col min="7177" max="7178" width="11.90625" style="24" customWidth="1"/>
+    <col min="7170" max="7170" width="12.42578125" style="24" customWidth="1"/>
+    <col min="7171" max="7174" width="13.5703125" style="24" customWidth="1"/>
+    <col min="7175" max="7176" width="12.5703125" style="24" customWidth="1"/>
+    <col min="7177" max="7178" width="11.85546875" style="24" customWidth="1"/>
     <col min="7179" max="7424" width="9" style="24"/>
     <col min="7425" max="7425" width="14" style="24" customWidth="1"/>
-    <col min="7426" max="7426" width="12.36328125" style="24" customWidth="1"/>
-    <col min="7427" max="7430" width="13.6328125" style="24" customWidth="1"/>
-    <col min="7431" max="7432" width="12.6328125" style="24" customWidth="1"/>
-    <col min="7433" max="7434" width="11.90625" style="24" customWidth="1"/>
+    <col min="7426" max="7426" width="12.42578125" style="24" customWidth="1"/>
+    <col min="7427" max="7430" width="13.5703125" style="24" customWidth="1"/>
+    <col min="7431" max="7432" width="12.5703125" style="24" customWidth="1"/>
+    <col min="7433" max="7434" width="11.85546875" style="24" customWidth="1"/>
     <col min="7435" max="7680" width="9" style="24"/>
     <col min="7681" max="7681" width="14" style="24" customWidth="1"/>
-    <col min="7682" max="7682" width="12.36328125" style="24" customWidth="1"/>
-    <col min="7683" max="7686" width="13.6328125" style="24" customWidth="1"/>
-    <col min="7687" max="7688" width="12.6328125" style="24" customWidth="1"/>
-    <col min="7689" max="7690" width="11.90625" style="24" customWidth="1"/>
+    <col min="7682" max="7682" width="12.42578125" style="24" customWidth="1"/>
+    <col min="7683" max="7686" width="13.5703125" style="24" customWidth="1"/>
+    <col min="7687" max="7688" width="12.5703125" style="24" customWidth="1"/>
+    <col min="7689" max="7690" width="11.85546875" style="24" customWidth="1"/>
     <col min="7691" max="7936" width="9" style="24"/>
     <col min="7937" max="7937" width="14" style="24" customWidth="1"/>
-    <col min="7938" max="7938" width="12.36328125" style="24" customWidth="1"/>
-    <col min="7939" max="7942" width="13.6328125" style="24" customWidth="1"/>
-    <col min="7943" max="7944" width="12.6328125" style="24" customWidth="1"/>
-    <col min="7945" max="7946" width="11.90625" style="24" customWidth="1"/>
+    <col min="7938" max="7938" width="12.42578125" style="24" customWidth="1"/>
+    <col min="7939" max="7942" width="13.5703125" style="24" customWidth="1"/>
+    <col min="7943" max="7944" width="12.5703125" style="24" customWidth="1"/>
+    <col min="7945" max="7946" width="11.85546875" style="24" customWidth="1"/>
     <col min="7947" max="8192" width="9" style="24"/>
     <col min="8193" max="8193" width="14" style="24" customWidth="1"/>
-    <col min="8194" max="8194" width="12.36328125" style="24" customWidth="1"/>
-    <col min="8195" max="8198" width="13.6328125" style="24" customWidth="1"/>
-    <col min="8199" max="8200" width="12.6328125" style="24" customWidth="1"/>
-    <col min="8201" max="8202" width="11.90625" style="24" customWidth="1"/>
+    <col min="8194" max="8194" width="12.42578125" style="24" customWidth="1"/>
+    <col min="8195" max="8198" width="13.5703125" style="24" customWidth="1"/>
+    <col min="8199" max="8200" width="12.5703125" style="24" customWidth="1"/>
+    <col min="8201" max="8202" width="11.85546875" style="24" customWidth="1"/>
     <col min="8203" max="8448" width="9" style="24"/>
     <col min="8449" max="8449" width="14" style="24" customWidth="1"/>
-    <col min="8450" max="8450" width="12.36328125" style="24" customWidth="1"/>
-    <col min="8451" max="8454" width="13.6328125" style="24" customWidth="1"/>
-    <col min="8455" max="8456" width="12.6328125" style="24" customWidth="1"/>
-    <col min="8457" max="8458" width="11.90625" style="24" customWidth="1"/>
+    <col min="8450" max="8450" width="12.42578125" style="24" customWidth="1"/>
+    <col min="8451" max="8454" width="13.5703125" style="24" customWidth="1"/>
+    <col min="8455" max="8456" width="12.5703125" style="24" customWidth="1"/>
+    <col min="8457" max="8458" width="11.85546875" style="24" customWidth="1"/>
     <col min="8459" max="8704" width="9" style="24"/>
     <col min="8705" max="8705" width="14" style="24" customWidth="1"/>
-    <col min="8706" max="8706" width="12.36328125" style="24" customWidth="1"/>
-    <col min="8707" max="8710" width="13.6328125" style="24" customWidth="1"/>
-    <col min="8711" max="8712" width="12.6328125" style="24" customWidth="1"/>
-    <col min="8713" max="8714" width="11.90625" style="24" customWidth="1"/>
+    <col min="8706" max="8706" width="12.42578125" style="24" customWidth="1"/>
+    <col min="8707" max="8710" width="13.5703125" style="24" customWidth="1"/>
+    <col min="8711" max="8712" width="12.5703125" style="24" customWidth="1"/>
+    <col min="8713" max="8714" width="11.85546875" style="24" customWidth="1"/>
     <col min="8715" max="8960" width="9" style="24"/>
     <col min="8961" max="8961" width="14" style="24" customWidth="1"/>
-    <col min="8962" max="8962" width="12.36328125" style="24" customWidth="1"/>
-    <col min="8963" max="8966" width="13.6328125" style="24" customWidth="1"/>
-    <col min="8967" max="8968" width="12.6328125" style="24" customWidth="1"/>
-    <col min="8969" max="8970" width="11.90625" style="24" customWidth="1"/>
+    <col min="8962" max="8962" width="12.42578125" style="24" customWidth="1"/>
+    <col min="8963" max="8966" width="13.5703125" style="24" customWidth="1"/>
+    <col min="8967" max="8968" width="12.5703125" style="24" customWidth="1"/>
+    <col min="8969" max="8970" width="11.85546875" style="24" customWidth="1"/>
     <col min="8971" max="9216" width="9" style="24"/>
     <col min="9217" max="9217" width="14" style="24" customWidth="1"/>
-    <col min="9218" max="9218" width="12.36328125" style="24" customWidth="1"/>
-    <col min="9219" max="9222" width="13.6328125" style="24" customWidth="1"/>
-    <col min="9223" max="9224" width="12.6328125" style="24" customWidth="1"/>
-    <col min="9225" max="9226" width="11.90625" style="24" customWidth="1"/>
+    <col min="9218" max="9218" width="12.42578125" style="24" customWidth="1"/>
+    <col min="9219" max="9222" width="13.5703125" style="24" customWidth="1"/>
+    <col min="9223" max="9224" width="12.5703125" style="24" customWidth="1"/>
+    <col min="9225" max="9226" width="11.85546875" style="24" customWidth="1"/>
     <col min="9227" max="9472" width="9" style="24"/>
     <col min="9473" max="9473" width="14" style="24" customWidth="1"/>
-    <col min="9474" max="9474" width="12.36328125" style="24" customWidth="1"/>
-    <col min="9475" max="9478" width="13.6328125" style="24" customWidth="1"/>
-    <col min="9479" max="9480" width="12.6328125" style="24" customWidth="1"/>
-    <col min="9481" max="9482" width="11.90625" style="24" customWidth="1"/>
+    <col min="9474" max="9474" width="12.42578125" style="24" customWidth="1"/>
+    <col min="9475" max="9478" width="13.5703125" style="24" customWidth="1"/>
+    <col min="9479" max="9480" width="12.5703125" style="24" customWidth="1"/>
+    <col min="9481" max="9482" width="11.85546875" style="24" customWidth="1"/>
     <col min="9483" max="9728" width="9" style="24"/>
     <col min="9729" max="9729" width="14" style="24" customWidth="1"/>
-    <col min="9730" max="9730" width="12.36328125" style="24" customWidth="1"/>
-    <col min="9731" max="9734" width="13.6328125" style="24" customWidth="1"/>
-    <col min="9735" max="9736" width="12.6328125" style="24" customWidth="1"/>
-    <col min="9737" max="9738" width="11.90625" style="24" customWidth="1"/>
+    <col min="9730" max="9730" width="12.42578125" style="24" customWidth="1"/>
+    <col min="9731" max="9734" width="13.5703125" style="24" customWidth="1"/>
+    <col min="9735" max="9736" width="12.5703125" style="24" customWidth="1"/>
+    <col min="9737" max="9738" width="11.85546875" style="24" customWidth="1"/>
     <col min="9739" max="9984" width="9" style="24"/>
     <col min="9985" max="9985" width="14" style="24" customWidth="1"/>
-    <col min="9986" max="9986" width="12.36328125" style="24" customWidth="1"/>
-    <col min="9987" max="9990" width="13.6328125" style="24" customWidth="1"/>
-    <col min="9991" max="9992" width="12.6328125" style="24" customWidth="1"/>
-    <col min="9993" max="9994" width="11.90625" style="24" customWidth="1"/>
+    <col min="9986" max="9986" width="12.42578125" style="24" customWidth="1"/>
+    <col min="9987" max="9990" width="13.5703125" style="24" customWidth="1"/>
+    <col min="9991" max="9992" width="12.5703125" style="24" customWidth="1"/>
+    <col min="9993" max="9994" width="11.85546875" style="24" customWidth="1"/>
     <col min="9995" max="10240" width="9" style="24"/>
     <col min="10241" max="10241" width="14" style="24" customWidth="1"/>
-    <col min="10242" max="10242" width="12.36328125" style="24" customWidth="1"/>
-    <col min="10243" max="10246" width="13.6328125" style="24" customWidth="1"/>
-    <col min="10247" max="10248" width="12.6328125" style="24" customWidth="1"/>
-    <col min="10249" max="10250" width="11.90625" style="24" customWidth="1"/>
+    <col min="10242" max="10242" width="12.42578125" style="24" customWidth="1"/>
+    <col min="10243" max="10246" width="13.5703125" style="24" customWidth="1"/>
+    <col min="10247" max="10248" width="12.5703125" style="24" customWidth="1"/>
+    <col min="10249" max="10250" width="11.85546875" style="24" customWidth="1"/>
     <col min="10251" max="10496" width="9" style="24"/>
     <col min="10497" max="10497" width="14" style="24" customWidth="1"/>
-    <col min="10498" max="10498" width="12.36328125" style="24" customWidth="1"/>
-    <col min="10499" max="10502" width="13.6328125" style="24" customWidth="1"/>
-    <col min="10503" max="10504" width="12.6328125" style="24" customWidth="1"/>
-    <col min="10505" max="10506" width="11.90625" style="24" customWidth="1"/>
+    <col min="10498" max="10498" width="12.42578125" style="24" customWidth="1"/>
+    <col min="10499" max="10502" width="13.5703125" style="24" customWidth="1"/>
+    <col min="10503" max="10504" width="12.5703125" style="24" customWidth="1"/>
+    <col min="10505" max="10506" width="11.85546875" style="24" customWidth="1"/>
     <col min="10507" max="10752" width="9" style="24"/>
     <col min="10753" max="10753" width="14" style="24" customWidth="1"/>
-    <col min="10754" max="10754" width="12.36328125" style="24" customWidth="1"/>
-    <col min="10755" max="10758" width="13.6328125" style="24" customWidth="1"/>
-    <col min="10759" max="10760" width="12.6328125" style="24" customWidth="1"/>
-    <col min="10761" max="10762" width="11.90625" style="24" customWidth="1"/>
+    <col min="10754" max="10754" width="12.42578125" style="24" customWidth="1"/>
+    <col min="10755" max="10758" width="13.5703125" style="24" customWidth="1"/>
+    <col min="10759" max="10760" width="12.5703125" style="24" customWidth="1"/>
+    <col min="10761" max="10762" width="11.85546875" style="24" customWidth="1"/>
     <col min="10763" max="11008" width="9" style="24"/>
     <col min="11009" max="11009" width="14" style="24" customWidth="1"/>
-    <col min="11010" max="11010" width="12.36328125" style="24" customWidth="1"/>
-    <col min="11011" max="11014" width="13.6328125" style="24" customWidth="1"/>
-    <col min="11015" max="11016" width="12.6328125" style="24" customWidth="1"/>
-    <col min="11017" max="11018" width="11.90625" style="24" customWidth="1"/>
+    <col min="11010" max="11010" width="12.42578125" style="24" customWidth="1"/>
+    <col min="11011" max="11014" width="13.5703125" style="24" customWidth="1"/>
+    <col min="11015" max="11016" width="12.5703125" style="24" customWidth="1"/>
+    <col min="11017" max="11018" width="11.85546875" style="24" customWidth="1"/>
     <col min="11019" max="11264" width="9" style="24"/>
     <col min="11265" max="11265" width="14" style="24" customWidth="1"/>
-    <col min="11266" max="11266" width="12.36328125" style="24" customWidth="1"/>
-    <col min="11267" max="11270" width="13.6328125" style="24" customWidth="1"/>
-    <col min="11271" max="11272" width="12.6328125" style="24" customWidth="1"/>
-    <col min="11273" max="11274" width="11.90625" style="24" customWidth="1"/>
+    <col min="11266" max="11266" width="12.42578125" style="24" customWidth="1"/>
+    <col min="11267" max="11270" width="13.5703125" style="24" customWidth="1"/>
+    <col min="11271" max="11272" width="12.5703125" style="24" customWidth="1"/>
+    <col min="11273" max="11274" width="11.85546875" style="24" customWidth="1"/>
     <col min="11275" max="11520" width="9" style="24"/>
     <col min="11521" max="11521" width="14" style="24" customWidth="1"/>
-    <col min="11522" max="11522" width="12.36328125" style="24" customWidth="1"/>
-    <col min="11523" max="11526" width="13.6328125" style="24" customWidth="1"/>
-    <col min="11527" max="11528" width="12.6328125" style="24" customWidth="1"/>
-    <col min="11529" max="11530" width="11.90625" style="24" customWidth="1"/>
+    <col min="11522" max="11522" width="12.42578125" style="24" customWidth="1"/>
+    <col min="11523" max="11526" width="13.5703125" style="24" customWidth="1"/>
+    <col min="11527" max="11528" width="12.5703125" style="24" customWidth="1"/>
+    <col min="11529" max="11530" width="11.85546875" style="24" customWidth="1"/>
     <col min="11531" max="11776" width="9" style="24"/>
     <col min="11777" max="11777" width="14" style="24" customWidth="1"/>
-    <col min="11778" max="11778" width="12.36328125" style="24" customWidth="1"/>
-    <col min="11779" max="11782" width="13.6328125" style="24" customWidth="1"/>
-    <col min="11783" max="11784" width="12.6328125" style="24" customWidth="1"/>
-    <col min="11785" max="11786" width="11.90625" style="24" customWidth="1"/>
+    <col min="11778" max="11778" width="12.42578125" style="24" customWidth="1"/>
+    <col min="11779" max="11782" width="13.5703125" style="24" customWidth="1"/>
+    <col min="11783" max="11784" width="12.5703125" style="24" customWidth="1"/>
+    <col min="11785" max="11786" width="11.85546875" style="24" customWidth="1"/>
     <col min="11787" max="12032" width="9" style="24"/>
     <col min="12033" max="12033" width="14" style="24" customWidth="1"/>
-    <col min="12034" max="12034" width="12.36328125" style="24" customWidth="1"/>
-    <col min="12035" max="12038" width="13.6328125" style="24" customWidth="1"/>
-    <col min="12039" max="12040" width="12.6328125" style="24" customWidth="1"/>
-    <col min="12041" max="12042" width="11.90625" style="24" customWidth="1"/>
+    <col min="12034" max="12034" width="12.42578125" style="24" customWidth="1"/>
+    <col min="12035" max="12038" width="13.5703125" style="24" customWidth="1"/>
+    <col min="12039" max="12040" width="12.5703125" style="24" customWidth="1"/>
+    <col min="12041" max="12042" width="11.85546875" style="24" customWidth="1"/>
     <col min="12043" max="12288" width="9" style="24"/>
     <col min="12289" max="12289" width="14" style="24" customWidth="1"/>
-    <col min="12290" max="12290" width="12.36328125" style="24" customWidth="1"/>
-    <col min="12291" max="12294" width="13.6328125" style="24" customWidth="1"/>
-    <col min="12295" max="12296" width="12.6328125" style="24" customWidth="1"/>
-    <col min="12297" max="12298" width="11.90625" style="24" customWidth="1"/>
+    <col min="12290" max="12290" width="12.42578125" style="24" customWidth="1"/>
+    <col min="12291" max="12294" width="13.5703125" style="24" customWidth="1"/>
+    <col min="12295" max="12296" width="12.5703125" style="24" customWidth="1"/>
+    <col min="12297" max="12298" width="11.85546875" style="24" customWidth="1"/>
     <col min="12299" max="12544" width="9" style="24"/>
     <col min="12545" max="12545" width="14" style="24" customWidth="1"/>
-    <col min="12546" max="12546" width="12.36328125" style="24" customWidth="1"/>
-    <col min="12547" max="12550" width="13.6328125" style="24" customWidth="1"/>
-    <col min="12551" max="12552" width="12.6328125" style="24" customWidth="1"/>
-    <col min="12553" max="12554" width="11.90625" style="24" customWidth="1"/>
+    <col min="12546" max="12546" width="12.42578125" style="24" customWidth="1"/>
+    <col min="12547" max="12550" width="13.5703125" style="24" customWidth="1"/>
+    <col min="12551" max="12552" width="12.5703125" style="24" customWidth="1"/>
+    <col min="12553" max="12554" width="11.85546875" style="24" customWidth="1"/>
     <col min="12555" max="12800" width="9" style="24"/>
     <col min="12801" max="12801" width="14" style="24" customWidth="1"/>
-    <col min="12802" max="12802" width="12.36328125" style="24" customWidth="1"/>
-    <col min="12803" max="12806" width="13.6328125" style="24" customWidth="1"/>
-    <col min="12807" max="12808" width="12.6328125" style="24" customWidth="1"/>
-    <col min="12809" max="12810" width="11.90625" style="24" customWidth="1"/>
+    <col min="12802" max="12802" width="12.42578125" style="24" customWidth="1"/>
+    <col min="12803" max="12806" width="13.5703125" style="24" customWidth="1"/>
+    <col min="12807" max="12808" width="12.5703125" style="24" customWidth="1"/>
+    <col min="12809" max="12810" width="11.85546875" style="24" customWidth="1"/>
     <col min="12811" max="13056" width="9" style="24"/>
     <col min="13057" max="13057" width="14" style="24" customWidth="1"/>
-    <col min="13058" max="13058" width="12.36328125" style="24" customWidth="1"/>
-    <col min="13059" max="13062" width="13.6328125" style="24" customWidth="1"/>
-    <col min="13063" max="13064" width="12.6328125" style="24" customWidth="1"/>
-    <col min="13065" max="13066" width="11.90625" style="24" customWidth="1"/>
+    <col min="13058" max="13058" width="12.42578125" style="24" customWidth="1"/>
+    <col min="13059" max="13062" width="13.5703125" style="24" customWidth="1"/>
+    <col min="13063" max="13064" width="12.5703125" style="24" customWidth="1"/>
+    <col min="13065" max="13066" width="11.85546875" style="24" customWidth="1"/>
     <col min="13067" max="13312" width="9" style="24"/>
     <col min="13313" max="13313" width="14" style="24" customWidth="1"/>
-    <col min="13314" max="13314" width="12.36328125" style="24" customWidth="1"/>
-    <col min="13315" max="13318" width="13.6328125" style="24" customWidth="1"/>
-    <col min="13319" max="13320" width="12.6328125" style="24" customWidth="1"/>
-    <col min="13321" max="13322" width="11.90625" style="24" customWidth="1"/>
+    <col min="13314" max="13314" width="12.42578125" style="24" customWidth="1"/>
+    <col min="13315" max="13318" width="13.5703125" style="24" customWidth="1"/>
+    <col min="13319" max="13320" width="12.5703125" style="24" customWidth="1"/>
+    <col min="13321" max="13322" width="11.85546875" style="24" customWidth="1"/>
     <col min="13323" max="13568" width="9" style="24"/>
     <col min="13569" max="13569" width="14" style="24" customWidth="1"/>
-    <col min="13570" max="13570" width="12.36328125" style="24" customWidth="1"/>
-    <col min="13571" max="13574" width="13.6328125" style="24" customWidth="1"/>
-    <col min="13575" max="13576" width="12.6328125" style="24" customWidth="1"/>
-    <col min="13577" max="13578" width="11.90625" style="24" customWidth="1"/>
+    <col min="13570" max="13570" width="12.42578125" style="24" customWidth="1"/>
+    <col min="13571" max="13574" width="13.5703125" style="24" customWidth="1"/>
+    <col min="13575" max="13576" width="12.5703125" style="24" customWidth="1"/>
+    <col min="13577" max="13578" width="11.85546875" style="24" customWidth="1"/>
     <col min="13579" max="13824" width="9" style="24"/>
     <col min="13825" max="13825" width="14" style="24" customWidth="1"/>
-    <col min="13826" max="13826" width="12.36328125" style="24" customWidth="1"/>
-    <col min="13827" max="13830" width="13.6328125" style="24" customWidth="1"/>
-    <col min="13831" max="13832" width="12.6328125" style="24" customWidth="1"/>
-    <col min="13833" max="13834" width="11.90625" style="24" customWidth="1"/>
+    <col min="13826" max="13826" width="12.42578125" style="24" customWidth="1"/>
+    <col min="13827" max="13830" width="13.5703125" style="24" customWidth="1"/>
+    <col min="13831" max="13832" width="12.5703125" style="24" customWidth="1"/>
+    <col min="13833" max="13834" width="11.85546875" style="24" customWidth="1"/>
     <col min="13835" max="14080" width="9" style="24"/>
     <col min="14081" max="14081" width="14" style="24" customWidth="1"/>
-    <col min="14082" max="14082" width="12.36328125" style="24" customWidth="1"/>
-    <col min="14083" max="14086" width="13.6328125" style="24" customWidth="1"/>
-    <col min="14087" max="14088" width="12.6328125" style="24" customWidth="1"/>
-    <col min="14089" max="14090" width="11.90625" style="24" customWidth="1"/>
+    <col min="14082" max="14082" width="12.42578125" style="24" customWidth="1"/>
+    <col min="14083" max="14086" width="13.5703125" style="24" customWidth="1"/>
+    <col min="14087" max="14088" width="12.5703125" style="24" customWidth="1"/>
+    <col min="14089" max="14090" width="11.85546875" style="24" customWidth="1"/>
     <col min="14091" max="14336" width="9" style="24"/>
     <col min="14337" max="14337" width="14" style="24" customWidth="1"/>
-    <col min="14338" max="14338" width="12.36328125" style="24" customWidth="1"/>
-    <col min="14339" max="14342" width="13.6328125" style="24" customWidth="1"/>
-    <col min="14343" max="14344" width="12.6328125" style="24" customWidth="1"/>
-    <col min="14345" max="14346" width="11.90625" style="24" customWidth="1"/>
+    <col min="14338" max="14338" width="12.42578125" style="24" customWidth="1"/>
+    <col min="14339" max="14342" width="13.5703125" style="24" customWidth="1"/>
+    <col min="14343" max="14344" width="12.5703125" style="24" customWidth="1"/>
+    <col min="14345" max="14346" width="11.85546875" style="24" customWidth="1"/>
     <col min="14347" max="14592" width="9" style="24"/>
     <col min="14593" max="14593" width="14" style="24" customWidth="1"/>
-    <col min="14594" max="14594" width="12.36328125" style="24" customWidth="1"/>
-    <col min="14595" max="14598" width="13.6328125" style="24" customWidth="1"/>
-    <col min="14599" max="14600" width="12.6328125" style="24" customWidth="1"/>
-    <col min="14601" max="14602" width="11.90625" style="24" customWidth="1"/>
+    <col min="14594" max="14594" width="12.42578125" style="24" customWidth="1"/>
+    <col min="14595" max="14598" width="13.5703125" style="24" customWidth="1"/>
+    <col min="14599" max="14600" width="12.5703125" style="24" customWidth="1"/>
+    <col min="14601" max="14602" width="11.85546875" style="24" customWidth="1"/>
     <col min="14603" max="14848" width="9" style="24"/>
     <col min="14849" max="14849" width="14" style="24" customWidth="1"/>
-    <col min="14850" max="14850" width="12.36328125" style="24" customWidth="1"/>
-    <col min="14851" max="14854" width="13.6328125" style="24" customWidth="1"/>
-    <col min="14855" max="14856" width="12.6328125" style="24" customWidth="1"/>
-    <col min="14857" max="14858" width="11.90625" style="24" customWidth="1"/>
+    <col min="14850" max="14850" width="12.42578125" style="24" customWidth="1"/>
+    <col min="14851" max="14854" width="13.5703125" style="24" customWidth="1"/>
+    <col min="14855" max="14856" width="12.5703125" style="24" customWidth="1"/>
+    <col min="14857" max="14858" width="11.85546875" style="24" customWidth="1"/>
     <col min="14859" max="15104" width="9" style="24"/>
     <col min="15105" max="15105" width="14" style="24" customWidth="1"/>
-    <col min="15106" max="15106" width="12.36328125" style="24" customWidth="1"/>
-    <col min="15107" max="15110" width="13.6328125" style="24" customWidth="1"/>
-    <col min="15111" max="15112" width="12.6328125" style="24" customWidth="1"/>
-    <col min="15113" max="15114" width="11.90625" style="24" customWidth="1"/>
+    <col min="15106" max="15106" width="12.42578125" style="24" customWidth="1"/>
+    <col min="15107" max="15110" width="13.5703125" style="24" customWidth="1"/>
+    <col min="15111" max="15112" width="12.5703125" style="24" customWidth="1"/>
+    <col min="15113" max="15114" width="11.85546875" style="24" customWidth="1"/>
     <col min="15115" max="15360" width="9" style="24"/>
     <col min="15361" max="15361" width="14" style="24" customWidth="1"/>
-    <col min="15362" max="15362" width="12.36328125" style="24" customWidth="1"/>
-    <col min="15363" max="15366" width="13.6328125" style="24" customWidth="1"/>
-    <col min="15367" max="15368" width="12.6328125" style="24" customWidth="1"/>
-    <col min="15369" max="15370" width="11.90625" style="24" customWidth="1"/>
+    <col min="15362" max="15362" width="12.42578125" style="24" customWidth="1"/>
+    <col min="15363" max="15366" width="13.5703125" style="24" customWidth="1"/>
+    <col min="15367" max="15368" width="12.5703125" style="24" customWidth="1"/>
+    <col min="15369" max="15370" width="11.85546875" style="24" customWidth="1"/>
     <col min="15371" max="15616" width="9" style="24"/>
     <col min="15617" max="15617" width="14" style="24" customWidth="1"/>
-    <col min="15618" max="15618" width="12.36328125" style="24" customWidth="1"/>
-    <col min="15619" max="15622" width="13.6328125" style="24" customWidth="1"/>
-    <col min="15623" max="15624" width="12.6328125" style="24" customWidth="1"/>
-    <col min="15625" max="15626" width="11.90625" style="24" customWidth="1"/>
+    <col min="15618" max="15618" width="12.42578125" style="24" customWidth="1"/>
+    <col min="15619" max="15622" width="13.5703125" style="24" customWidth="1"/>
+    <col min="15623" max="15624" width="12.5703125" style="24" customWidth="1"/>
+    <col min="15625" max="15626" width="11.85546875" style="24" customWidth="1"/>
     <col min="15627" max="15872" width="9" style="24"/>
     <col min="15873" max="15873" width="14" style="24" customWidth="1"/>
-    <col min="15874" max="15874" width="12.36328125" style="24" customWidth="1"/>
-    <col min="15875" max="15878" width="13.6328125" style="24" customWidth="1"/>
-    <col min="15879" max="15880" width="12.6328125" style="24" customWidth="1"/>
-    <col min="15881" max="15882" width="11.90625" style="24" customWidth="1"/>
+    <col min="15874" max="15874" width="12.42578125" style="24" customWidth="1"/>
+    <col min="15875" max="15878" width="13.5703125" style="24" customWidth="1"/>
+    <col min="15879" max="15880" width="12.5703125" style="24" customWidth="1"/>
+    <col min="15881" max="15882" width="11.85546875" style="24" customWidth="1"/>
     <col min="15883" max="16128" width="9" style="24"/>
     <col min="16129" max="16129" width="14" style="24" customWidth="1"/>
-    <col min="16130" max="16130" width="12.36328125" style="24" customWidth="1"/>
-    <col min="16131" max="16134" width="13.6328125" style="24" customWidth="1"/>
-    <col min="16135" max="16136" width="12.6328125" style="24" customWidth="1"/>
-    <col min="16137" max="16138" width="11.90625" style="24" customWidth="1"/>
+    <col min="16130" max="16130" width="12.42578125" style="24" customWidth="1"/>
+    <col min="16131" max="16134" width="13.5703125" style="24" customWidth="1"/>
+    <col min="16135" max="16136" width="12.5703125" style="24" customWidth="1"/>
+    <col min="16137" max="16138" width="11.85546875" style="24" customWidth="1"/>
     <col min="16139" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.149999999999999" customHeight="1">
+    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="35" t="s">
         <v>145</v>
       </c>
@@ -7063,7 +10733,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20.149999999999999" customHeight="1">
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="35" t="s">
         <v>147</v>
       </c>
@@ -7071,7 +10741,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.149999999999999" customHeight="1">
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="116" t="s">
         <v>141</v>
       </c>
@@ -7101,7 +10771,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.149999999999999" customHeight="1">
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="117">
         <v>2011</v>
       </c>
@@ -7133,7 +10803,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="20.149999999999999" customHeight="1">
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="116"/>
       <c r="B5" s="38" t="s">
         <v>152</v>
@@ -7163,7 +10833,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="20.149999999999999" customHeight="1">
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="117">
         <v>2012</v>
       </c>
@@ -7195,7 +10865,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="20.149999999999999" customHeight="1">
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="116"/>
       <c r="B7" s="38" t="s">
         <v>152</v>
@@ -7225,7 +10895,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="20.149999999999999" customHeight="1">
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="117">
         <v>2013</v>
       </c>
@@ -7257,7 +10927,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="20.149999999999999" customHeight="1">
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="116"/>
       <c r="B9" s="38" t="s">
         <v>152</v>
@@ -7287,7 +10957,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="20.149999999999999" customHeight="1">
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="117">
         <v>2014</v>
       </c>
@@ -7319,7 +10989,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="20.149999999999999" customHeight="1">
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="116"/>
       <c r="B11" s="38" t="s">
         <v>152</v>
@@ -7349,7 +11019,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="20.149999999999999" customHeight="1">
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="117">
         <v>2015</v>
       </c>
@@ -7381,7 +11051,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="20.149999999999999" customHeight="1">
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="116"/>
       <c r="B13" s="38" t="s">
         <v>152</v>
@@ -7411,7 +11081,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="20.149999999999999" customHeight="1">
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="117">
         <v>2016</v>
       </c>
@@ -7443,7 +11113,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="20.149999999999999" customHeight="1">
+    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="116"/>
       <c r="B15" s="38" t="s">
         <v>152</v>
@@ -7473,7 +11143,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="20.149999999999999" customHeight="1">
+    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="117">
         <v>2017</v>
       </c>
@@ -7505,7 +11175,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="20.149999999999999" customHeight="1">
+    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="116"/>
       <c r="B17" s="38" t="s">
         <v>152</v>
@@ -7535,7 +11205,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="20.149999999999999" customHeight="1">
+    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="117">
         <v>2018</v>
       </c>
@@ -7567,7 +11237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="20.149999999999999" customHeight="1">
+    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="116"/>
       <c r="B19" s="38" t="s">
         <v>152</v>
@@ -7597,7 +11267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="20.149999999999999" customHeight="1">
+    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="117">
         <v>2019</v>
       </c>
@@ -7629,7 +11299,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="20.149999999999999" customHeight="1">
+    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="116"/>
       <c r="B21" s="38" t="s">
         <v>152</v>
@@ -7659,7 +11329,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="20.149999999999999" customHeight="1">
+    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="117">
         <v>2020</v>
       </c>
@@ -7691,7 +11361,7 @@
         <v>7681</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="20.149999999999999" customHeight="1">
+    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="116"/>
       <c r="B23" s="38" t="s">
         <v>152</v>
@@ -7721,7 +11391,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="20.149999999999999" customHeight="1">
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="35"/>
     </row>
   </sheetData>
@@ -7751,33 +11421,33 @@
       <selection activeCell="E30" sqref="E30:E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="21.08984375" style="21" customWidth="1"/>
-    <col min="4" max="6" width="18.6328125" style="21" customWidth="1"/>
-    <col min="7" max="7" width="14.08984375" style="21" customWidth="1"/>
-    <col min="8" max="9" width="16.36328125" style="21" customWidth="1"/>
-    <col min="10" max="10" width="18.6328125" style="21" customWidth="1"/>
-    <col min="11" max="11" width="14.08984375" style="21" customWidth="1"/>
-    <col min="12" max="12" width="18.6328125" style="21" customWidth="1"/>
-    <col min="13" max="13" width="14.08984375" style="21" customWidth="1"/>
-    <col min="14" max="15" width="11.6328125" style="21" customWidth="1"/>
-    <col min="16" max="17" width="16.36328125" style="21" customWidth="1"/>
-    <col min="18" max="18" width="14.08984375" style="21" customWidth="1"/>
-    <col min="19" max="19" width="16.36328125" style="21" customWidth="1"/>
-    <col min="20" max="20" width="11.6328125" style="21" customWidth="1"/>
-    <col min="21" max="21" width="16.36328125" style="21" customWidth="1"/>
-    <col min="22" max="22" width="18.6328125" style="21" customWidth="1"/>
-    <col min="23" max="23" width="16.36328125" style="21" customWidth="1"/>
-    <col min="24" max="24" width="18.6328125" style="21" customWidth="1"/>
-    <col min="25" max="26" width="16.36328125" style="21" customWidth="1"/>
-    <col min="27" max="27" width="14.08984375" style="21" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="21" customWidth="1"/>
+    <col min="4" max="6" width="18.5703125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="21" customWidth="1"/>
+    <col min="8" max="9" width="16.42578125" style="21" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="21" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="21" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="21" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="21" customWidth="1"/>
+    <col min="14" max="15" width="11.5703125" style="21" customWidth="1"/>
+    <col min="16" max="17" width="16.42578125" style="21" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" style="21" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" style="21" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" style="21" customWidth="1"/>
+    <col min="21" max="21" width="16.42578125" style="21" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" style="21" customWidth="1"/>
+    <col min="23" max="23" width="16.42578125" style="21" customWidth="1"/>
+    <col min="24" max="24" width="18.5703125" style="21" customWidth="1"/>
+    <col min="25" max="26" width="16.42578125" style="21" customWidth="1"/>
+    <col min="27" max="27" width="14.140625" style="21" customWidth="1"/>
     <col min="28" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="20.149999999999999" customHeight="1">
+    <row r="1" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="118" t="s">
         <v>153</v>
       </c>
@@ -7860,7 +11530,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="20.149999999999999" customHeight="1">
+    <row r="2" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="119" t="s">
         <v>153</v>
       </c>
@@ -7943,7 +11613,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="20.149999999999999" customHeight="1">
+    <row r="3" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="119" t="s">
         <v>153</v>
       </c>
@@ -8026,7 +11696,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="20.149999999999999" customHeight="1">
+    <row r="4" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="43" t="s">
         <v>155</v>
       </c>
@@ -8109,7 +11779,7 @@
         <v>366204</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="20.149999999999999" customHeight="1">
+    <row r="5" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="43" t="s">
         <v>169</v>
       </c>
@@ -8192,7 +11862,7 @@
         <v>366204</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="20.149999999999999" customHeight="1">
+    <row r="6" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="45" t="s">
         <v>141</v>
       </c>
@@ -8275,7 +11945,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="20.149999999999999" customHeight="1">
+    <row r="7" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="45" t="s">
         <v>141</v>
       </c>
@@ -8358,7 +12028,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="20.149999999999999" customHeight="1">
+    <row r="8" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="45" t="s">
         <v>141</v>
       </c>
@@ -8441,7 +12111,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="20.149999999999999" customHeight="1">
+    <row r="9" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="45" t="s">
         <v>141</v>
       </c>
@@ -8524,7 +12194,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="20.149999999999999" customHeight="1">
+    <row r="10" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="45" t="s">
         <v>141</v>
       </c>
@@ -8607,7 +12277,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="20.149999999999999" customHeight="1">
+    <row r="11" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="45" t="s">
         <v>141</v>
       </c>
@@ -8690,7 +12360,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="20.149999999999999" customHeight="1">
+    <row r="12" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="45" t="s">
         <v>141</v>
       </c>
@@ -8773,7 +12443,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="20.149999999999999" customHeight="1">
+    <row r="13" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="45" t="s">
         <v>141</v>
       </c>
@@ -8856,7 +12526,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="20.149999999999999" customHeight="1">
+    <row r="14" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="45" t="s">
         <v>141</v>
       </c>
@@ -8939,7 +12609,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="20.149999999999999" customHeight="1">
+    <row r="15" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="45" t="s">
         <v>141</v>
       </c>
@@ -9022,7 +12692,7 @@
         <v>40440</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="20.149999999999999" customHeight="1">
+    <row r="16" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="45" t="s">
         <v>141</v>
       </c>
@@ -9105,7 +12775,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="20.149999999999999" customHeight="1">
+    <row r="17" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="45" t="s">
         <v>141</v>
       </c>
@@ -9188,7 +12858,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="20.149999999999999" customHeight="1">
+    <row r="18" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="45" t="s">
         <v>141</v>
       </c>
@@ -9271,7 +12941,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="20.149999999999999" customHeight="1">
+    <row r="19" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="45" t="s">
         <v>141</v>
       </c>
@@ -9354,7 +13024,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="20.149999999999999" customHeight="1">
+    <row r="20" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="45" t="s">
         <v>141</v>
       </c>
@@ -9437,7 +13107,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="20.149999999999999" customHeight="1">
+    <row r="21" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="45" t="s">
         <v>141</v>
       </c>
@@ -9520,7 +13190,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="20.149999999999999" customHeight="1">
+    <row r="22" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="45" t="s">
         <v>141</v>
       </c>
@@ -9603,7 +13273,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="20.149999999999999" customHeight="1">
+    <row r="23" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="45" t="s">
         <v>141</v>
       </c>
@@ -9686,7 +13356,7 @@
         <v>315764</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="20.149999999999999" customHeight="1">
+    <row r="24" spans="1:27" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="46" t="s">
         <v>187</v>
       </c>
@@ -9793,14 +13463,14 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="42.6328125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.36328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="17" width="10.6328125" style="4" customWidth="1"/>
-    <col min="18" max="16384" width="9.08984375" style="4"/>
+    <col min="1" max="1" width="22.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="17" width="10.5703125" style="4" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="1" customFormat="1">
@@ -10869,7 +14539,7 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="19" t="s">
@@ -10999,19 +14669,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54ED3632-04ED-4DFD-8674-100465E36766}">
   <dimension ref="A1:AQ73"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.08984375" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" style="23" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="23" customWidth="1"/>
     <col min="6" max="12" width="9" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:43" ht="15" thickBot="1">
+    <row r="1" spans="2:43" ht="15.75" thickBot="1">
       <c r="B1" s="19" t="s">
         <v>205</v>
       </c>
@@ -11780,7 +15452,7 @@
         <v>1709.289</v>
       </c>
     </row>
-    <row r="7" spans="2:43" s="23" customFormat="1" ht="15" thickBot="1">
+    <row r="7" spans="2:43" s="23" customFormat="1" ht="15.75" thickBot="1">
       <c r="B7" s="73" t="s">
         <v>112</v>
       </c>
@@ -12030,7 +15702,7 @@
       <c r="AP9" s="34"/>
       <c r="AQ9" s="34"/>
     </row>
-    <row r="10" spans="2:43" s="24" customFormat="1" ht="15" thickBot="1">
+    <row r="10" spans="2:43" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="B10" s="62" t="s">
         <v>212</v>
       </c>
@@ -12176,7 +15848,7 @@
       <c r="AP12" s="34"/>
       <c r="AQ12" s="34"/>
     </row>
-    <row r="13" spans="2:43" s="24" customFormat="1" ht="15" thickBot="1">
+    <row r="13" spans="2:43" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="B13" s="73" t="s">
         <v>99</v>
       </c>
@@ -12270,7 +15942,7 @@
       <c r="AP14" s="34"/>
       <c r="AQ14" s="34"/>
     </row>
-    <row r="15" spans="2:43" s="24" customFormat="1" ht="15" thickBot="1">
+    <row r="15" spans="2:43" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="B15" s="19" t="s">
         <v>218</v>
       </c>
@@ -12638,7 +16310,7 @@
         <v>1723.1212435233174</v>
       </c>
     </row>
-    <row r="18" spans="2:43" s="24" customFormat="1" ht="15" thickBot="1">
+    <row r="18" spans="2:43" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="B18" s="73" t="s">
         <v>99</v>
       </c>
@@ -12938,7 +16610,7 @@
       <c r="AP21" s="34"/>
       <c r="AQ21" s="34"/>
     </row>
-    <row r="22" spans="2:43" s="24" customFormat="1" ht="15" thickBot="1">
+    <row r="22" spans="2:43" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="B22" s="19" t="s">
         <v>217</v>
       </c>
@@ -13326,7 +16998,7 @@
         <v>1460.3960026471034</v>
       </c>
     </row>
-    <row r="25" spans="2:43" s="24" customFormat="1" ht="15" thickBot="1">
+    <row r="25" spans="2:43" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="B25" s="73" t="s">
         <v>99</v>
       </c>
@@ -13538,7 +17210,7 @@
       <c r="AP26" s="34"/>
       <c r="AQ26" s="34"/>
     </row>
-    <row r="27" spans="2:43" s="24" customFormat="1" ht="15" thickBot="1">
+    <row r="27" spans="2:43" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="B27" s="84" t="s">
         <v>214</v>
       </c>
@@ -13686,7 +17358,7 @@
       <c r="AP29" s="34"/>
       <c r="AQ29" s="34"/>
     </row>
-    <row r="30" spans="2:43" s="24" customFormat="1" ht="15" thickBot="1">
+    <row r="30" spans="2:43" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="B30" s="73"/>
       <c r="C30" s="90" t="s">
         <v>103</v>
@@ -13781,7 +17453,7 @@
       <c r="AP31" s="34"/>
       <c r="AQ31" s="34"/>
     </row>
-    <row r="32" spans="2:43" s="24" customFormat="1" ht="15" thickBot="1">
+    <row r="32" spans="2:43" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="B32" s="19" t="s">
         <v>215</v>
       </c>
@@ -14307,7 +17979,7 @@
       <c r="R52" s="89"/>
       <c r="S52" s="92"/>
     </row>
-    <row r="53" spans="1:19" s="24" customFormat="1" ht="15" thickBot="1">
+    <row r="53" spans="1:19" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="B53" s="73"/>
       <c r="C53" s="90" t="s">
         <v>112</v>
@@ -14410,9 +18082,9 @@
       <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -14990,10 +18662,10 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6328125" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="9.08984375" style="3"/>
+    <col min="1" max="1" width="26.5703125" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
@@ -17190,10 +20862,10 @@
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.36328125" customWidth="1"/>
-    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
